--- a/biology/Médecine/Techniques_myotensives/Techniques_myotensives.xlsx
+++ b/biology/Médecine/Techniques_myotensives/Techniques_myotensives.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les techniques myotensives sont des modes d'étirement des muscles utilisées en médecine manuelle-ostéopathie ; elles sont l'équivalent de la technique du « contracté-relâché » en kinésithérapie, et sont connues aux États-Unis sous le terme « muscle energy technic » ; la relaxation post-isométrique est le plus souvent utilisée, l'inhibition réciproque plus rarement.
 </t>
@@ -511,7 +523,9 @@
           <t>Relaxation post-isométrique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On effectue un étirement passif après une contraction active isométrique, en profitant de la phase de relaxation post-isométrique ; l'explication est l'utilisation du « réflexe ostéotendineux inverse » qui permet l'inhibition de la contraction musculaire quand la tension du muscle augmente trop : à partir des organes tendineux de Golgi, les fibres Ib vont inhiber le motoneurone alpha.
 Technique :
@@ -548,7 +562,9 @@
           <t>Inhibition réciproque</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un étirement passif après une contraction active isométrique de l'antagoniste ; la contraction se fait donc dans le sens de la restriction; on utilise le phénomène d'« innervation réciproque » de Sherrington : une action sur le muscle antagoniste s'accompagne de l'effet opposé sur l'agoniste, grâce à un interneurone inhibiteur ; cette technique est utile si le muscle atteint est trop douloureux dans sa contraction.
 </t>
@@ -579,7 +595,9 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit essentiellement de rétraction ou de contracture d'un muscle responsable d'une restriction de mobilité, quelle qu'en soit la cause : pathologie d'hyperutilisation (troubles musculosquelettiques) sportive ou professionnelle, séquelles d'un traumatisme musculaire, ....
 </t>
@@ -610,7 +628,9 @@
           <t>Contre-indications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Pathologie musculaire traumatique récente : déchirure, contusion, tendinopathie aiguë ;
 pathologie articulaire médicale : infectieuse, métabolique, tumorale...
@@ -643,7 +663,9 @@
           <t>Muscles concernés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Les techniques myotensives sont plus adaptées aux muscles posturaux (toniques, lents, épais, courts, pour efforts soutenus, avec tendance à l'hypo-extensibilité) qu'aux muscles cinétiques (phasiques, rapides, longs, fins, pour efforts intenses et brefs, avec tendance à l'affaiblissement).
 Région cervicale et thoracique : muscles sous-occipitaux, sterno-cléido-mastoïdien, scalènes, angulaire de l'omoplate, trapèze, grand pectoral, grand dentelé, rotateurs externes d'épaule ;
